--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,6 +541,15 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="34.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
